--- a/bots/crawl_ch/output/vegi_coop_2023-02-21.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-02-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O535"/>
+  <dimension ref="A1:O538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -2540,7 +2540,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4034,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4172,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -4310,7 +4310,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -4444,7 +4444,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -5000,7 +5000,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -5134,7 +5134,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -5272,7 +5272,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5406,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5475,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -5674,7 +5674,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -5743,7 +5743,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -5812,7 +5812,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -5934,7 +5934,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -6064,7 +6064,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -6133,7 +6133,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -6202,7 +6202,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6401,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -6531,7 +6531,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -6600,7 +6600,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -6669,7 +6669,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -6734,7 +6734,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -6803,7 +6803,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -6856,7 +6856,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -6925,7 +6925,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -7059,7 +7059,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -7124,7 +7124,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -7189,7 +7189,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -7258,7 +7258,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -7400,7 +7400,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -7465,7 +7465,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -7534,7 +7534,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -7603,7 +7603,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -7668,7 +7668,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -7733,7 +7733,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -7944,7 +7944,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -8078,7 +8078,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -8143,7 +8143,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -8208,7 +8208,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -8330,7 +8330,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -8399,7 +8399,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -8464,7 +8464,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -8533,7 +8533,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -8602,7 +8602,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8671,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -8805,7 +8805,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -8939,7 +8939,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -9012,7 +9012,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -9081,7 +9081,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -9154,7 +9154,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -9223,7 +9223,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -9292,7 +9292,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -9430,7 +9430,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -9499,7 +9499,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -9568,7 +9568,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -9702,7 +9702,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -9840,7 +9840,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -9909,7 +9909,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -9978,7 +9978,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -10047,7 +10047,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10116,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -10181,7 +10181,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -10327,7 +10327,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -10392,7 +10392,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -10461,7 +10461,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -10603,7 +10603,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -10672,7 +10672,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -10737,7 +10737,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -10944,7 +10944,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -11013,7 +11013,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -11082,7 +11082,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -11220,7 +11220,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -11285,7 +11285,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -11354,7 +11354,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -11427,7 +11427,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11496,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -11569,7 +11569,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -11642,7 +11642,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -11693,7 +11693,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -11762,7 +11762,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -11831,7 +11831,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -11896,7 +11896,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -12034,7 +12034,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -12103,7 +12103,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -12172,7 +12172,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -12241,7 +12241,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -12310,7 +12310,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -12375,7 +12375,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -12448,7 +12448,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -12521,7 +12521,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -12574,7 +12574,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -12621,7 +12621,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -12694,7 +12694,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -12763,7 +12763,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -12909,7 +12909,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -12978,7 +12978,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -13047,7 +13047,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -13112,7 +13112,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -13177,7 +13177,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -13242,7 +13242,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -13311,7 +13311,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -13376,7 +13376,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -13445,7 +13445,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -13514,7 +13514,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -13587,7 +13587,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -13660,7 +13660,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -13725,7 +13725,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -13790,7 +13790,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -13859,7 +13859,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -13932,7 +13932,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -14001,7 +14001,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -14070,7 +14070,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -14143,7 +14143,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -14212,7 +14212,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -14346,7 +14346,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -14415,7 +14415,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -14488,7 +14488,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -14561,7 +14561,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -14630,7 +14630,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -14703,7 +14703,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -14768,7 +14768,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -14837,7 +14837,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -14904,7 +14904,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -14973,7 +14973,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -15038,7 +15038,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -15310,7 +15310,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -15379,7 +15379,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -15521,7 +15521,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -15588,7 +15588,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -15657,7 +15657,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -15726,7 +15726,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -15791,7 +15791,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -15860,7 +15860,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -15929,7 +15929,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -15998,7 +15998,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -16063,7 +16063,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -16128,7 +16128,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -16197,7 +16197,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -16270,7 +16270,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -16343,7 +16343,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -16412,7 +16412,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -16477,7 +16477,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -16526,7 +16526,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -16595,7 +16595,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -16668,7 +16668,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -16733,7 +16733,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -16802,7 +16802,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -16871,7 +16871,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -16940,7 +16940,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -17009,7 +17009,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -17076,7 +17076,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -17149,7 +17149,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -17222,7 +17222,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -17291,7 +17291,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -17360,7 +17360,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -17429,7 +17429,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -17502,7 +17502,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -17567,7 +17567,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -17640,7 +17640,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -17705,7 +17705,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -17774,7 +17774,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -17839,7 +17839,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -17908,7 +17908,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -17979,7 +17979,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -18048,7 +18048,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -18117,7 +18117,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -18263,7 +18263,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -18336,7 +18336,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -18409,7 +18409,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -18482,7 +18482,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -18545,7 +18545,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -18618,7 +18618,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -18683,7 +18683,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -18756,7 +18756,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -18829,7 +18829,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -18902,7 +18902,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -18975,7 +18975,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -19048,7 +19048,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -19121,7 +19121,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -19190,7 +19190,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -19263,7 +19263,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -19328,7 +19328,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -19401,7 +19401,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -19466,7 +19466,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -19539,7 +19539,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -19608,7 +19608,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -19673,7 +19673,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -19742,7 +19742,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -19815,7 +19815,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -19884,7 +19884,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -19953,7 +19953,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -20018,7 +20018,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -20087,7 +20087,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -20150,7 +20150,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -20219,7 +20219,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -20361,7 +20361,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -20430,7 +20430,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -20495,7 +20495,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -20568,7 +20568,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -20641,7 +20641,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -20694,7 +20694,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -20767,7 +20767,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -20836,7 +20836,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -20905,7 +20905,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -20978,7 +20978,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -21047,7 +21047,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -21114,7 +21114,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -21183,7 +21183,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -21252,7 +21252,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -21325,7 +21325,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -21390,7 +21390,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -21459,7 +21459,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -21532,7 +21532,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -21597,7 +21597,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -21670,7 +21670,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -21743,7 +21743,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -21806,7 +21806,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -21879,7 +21879,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -22019,7 +22019,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -22088,7 +22088,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -22161,7 +22161,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -22291,7 +22291,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -22364,7 +22364,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -22437,7 +22437,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -22510,7 +22510,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -22579,7 +22579,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -22652,7 +22652,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -22725,7 +22725,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -22790,7 +22790,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -22857,7 +22857,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -22930,7 +22930,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -23003,7 +23003,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -23068,7 +23068,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -23137,7 +23137,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -23206,7 +23206,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -23271,7 +23271,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -23344,7 +23344,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -23409,7 +23409,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -23474,7 +23474,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -23539,7 +23539,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -23608,7 +23608,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -23681,7 +23681,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -23754,7 +23754,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -23823,7 +23823,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -23896,7 +23896,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -23969,7 +23969,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -24038,7 +24038,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -24107,7 +24107,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -24172,7 +24172,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -24241,7 +24241,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -24314,7 +24314,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -24383,7 +24383,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -24456,7 +24456,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -24525,7 +24525,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -24588,7 +24588,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -24661,7 +24661,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -24734,7 +24734,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -24803,7 +24803,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -24876,7 +24876,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -24949,7 +24949,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -25018,7 +25018,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -25083,7 +25083,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -25156,7 +25156,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -25225,7 +25225,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -25290,7 +25290,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -25355,7 +25355,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -25428,7 +25428,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -25497,7 +25497,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -25570,7 +25570,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -25643,7 +25643,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -25712,7 +25712,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -25781,7 +25781,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -25850,7 +25850,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -25923,7 +25923,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -25996,7 +25996,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -26069,7 +26069,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -26142,7 +26142,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -26211,7 +26211,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -26284,7 +26284,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -26357,7 +26357,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -26426,7 +26426,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -26495,7 +26495,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -26568,7 +26568,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -26635,7 +26635,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -26708,7 +26708,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -26781,7 +26781,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -26854,7 +26854,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -26927,7 +26927,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -27000,7 +27000,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -27073,7 +27073,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -27146,7 +27146,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -27215,7 +27215,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -27280,7 +27280,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -27353,7 +27353,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -27426,7 +27426,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -27499,7 +27499,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -27572,7 +27572,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -27645,7 +27645,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -27710,7 +27710,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -27783,7 +27783,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -27848,7 +27848,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -27915,7 +27915,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -27988,7 +27988,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -28057,7 +28057,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -28130,7 +28130,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -28199,7 +28199,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -28266,7 +28266,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -28339,7 +28339,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -28408,7 +28408,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -28481,7 +28481,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -28554,7 +28554,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -28627,7 +28627,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -28700,7 +28700,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -28769,7 +28769,7 @@
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -28842,7 +28842,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -28982,7 +28982,7 @@
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -29051,7 +29051,7 @@
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -29116,7 +29116,7 @@
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -29189,7 +29189,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -29262,7 +29262,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -29335,7 +29335,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -29404,7 +29404,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -29477,7 +29477,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -29550,7 +29550,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -29623,7 +29623,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -29688,7 +29688,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -29759,7 +29759,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -29832,7 +29832,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -29905,7 +29905,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -29978,7 +29978,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -30047,7 +30047,7 @@
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -30120,7 +30120,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -30193,7 +30193,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -30266,7 +30266,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -30337,7 +30337,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -30402,7 +30402,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -30475,7 +30475,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -30548,7 +30548,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -30621,7 +30621,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -30690,7 +30690,7 @@
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -30761,7 +30761,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -30834,7 +30834,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -30907,7 +30907,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -30978,7 +30978,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -31043,7 +31043,7 @@
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -31116,7 +31116,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -31189,7 +31189,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -31262,7 +31262,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -31335,7 +31335,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -31404,7 +31404,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -31469,7 +31469,7 @@
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -31538,7 +31538,7 @@
       <c r="N451" t="inlineStr"/>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -31605,7 +31605,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -31678,7 +31678,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -31745,7 +31745,7 @@
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -31814,7 +31814,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -31887,7 +31887,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -31952,7 +31952,7 @@
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -32021,7 +32021,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -32074,7 +32074,7 @@
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -32147,7 +32147,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -32220,7 +32220,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -32285,7 +32285,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -32358,7 +32358,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -32431,7 +32431,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -32504,7 +32504,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -32577,7 +32577,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -32648,7 +32648,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -32719,7 +32719,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -32792,7 +32792,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -32855,7 +32855,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -32920,7 +32920,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -32993,7 +32993,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -33066,7 +33066,7 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -33139,7 +33139,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -33208,7 +33208,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -33281,7 +33281,7 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -33354,7 +33354,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -33417,7 +33417,7 @@
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -33482,7 +33482,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -33535,7 +33535,7 @@
       <c r="N480" t="inlineStr"/>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -33608,7 +33608,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -33673,7 +33673,7 @@
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -33746,7 +33746,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -33819,7 +33819,7 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -33892,7 +33892,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -33965,7 +33965,7 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -34038,7 +34038,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -34107,7 +34107,7 @@
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -34180,7 +34180,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -34245,7 +34245,7 @@
       <c r="N490" t="inlineStr"/>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -34314,7 +34314,7 @@
       <c r="N491" t="inlineStr"/>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -34387,7 +34387,7 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -34460,7 +34460,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -34533,7 +34533,7 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -34606,7 +34606,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -34675,7 +34675,7 @@
       <c r="N496" t="inlineStr"/>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -34742,7 +34742,7 @@
       <c r="N497" t="inlineStr"/>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -34811,7 +34811,7 @@
       <c r="N498" t="inlineStr"/>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -34884,7 +34884,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -34957,7 +34957,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -35014,7 +35014,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -35087,7 +35087,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -35160,7 +35160,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -35227,7 +35227,7 @@
       <c r="N504" t="inlineStr"/>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -35300,7 +35300,7 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -35365,7 +35365,7 @@
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -35438,7 +35438,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -35511,7 +35511,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -35582,7 +35582,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -35655,7 +35655,7 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -35724,7 +35724,7 @@
       <c r="N511" t="inlineStr"/>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -35797,7 +35797,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -35870,7 +35870,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -35935,7 +35935,7 @@
       <c r="N514" t="inlineStr"/>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -36008,7 +36008,7 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -36077,7 +36077,7 @@
       <c r="N516" t="inlineStr"/>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -36148,7 +36148,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -36213,7 +36213,7 @@
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -36286,7 +36286,7 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -36359,7 +36359,7 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -36428,7 +36428,7 @@
       <c r="N521" t="inlineStr"/>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -36497,7 +36497,7 @@
       <c r="N522" t="inlineStr"/>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -36570,7 +36570,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -36641,7 +36641,7 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -36712,7 +36712,7 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -36785,7 +36785,7 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
@@ -36836,95 +36836,93 @@
       <c r="N527" t="inlineStr"/>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>7105622</t>
+          <t>6349663</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Accro Nuggets pflanzlich</t>
+          <t>Primagusto Mango 1 Stück</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/accro-nuggets-pflanzlich/p/7105622</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/primagusto-mango-1-stueck/p/6349663</t>
+        </is>
+      </c>
+      <c r="D528" t="n">
+        <v>11</v>
+      </c>
       <c r="E528" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>ACCRO</t>
+          <t>Primagusto</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>5.90/1ST</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
         </is>
       </c>
       <c r="M528" t="inlineStr">
         <is>
-          <t>Accro Nuggets pflanzlich 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N528" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Primagusto Mango 1 Stück 5.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N528" t="inlineStr"/>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>7065419</t>
+          <t>7105622</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen</t>
+          <t>Accro Nuggets pflanzlich</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-kichererbsen/p/7065419</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/accro-nuggets-pflanzlich/p/7105622</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
@@ -36933,12 +36931,12 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>ACCRO</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
@@ -36963,39 +36961,39 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M529" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen 5.50 Schweizer Franken</t>
+          <t>Accro Nuggets pflanzlich 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>7105606</t>
+          <t>7065419</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Accro Hacksteak pflanzlich</t>
+          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/accro-hacksteak-pflanzlich/p/7105606</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-kichererbsen/p/7065419</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
@@ -37004,17 +37002,17 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>ACCRO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -37024,7 +37022,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -37034,56 +37032,58 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M530" t="inlineStr">
         <is>
-          <t>Accro Hacksteak pflanzlich 5.95 Schweizer Franken</t>
+          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>3090859</t>
+          <t>7105606</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Cicorino rot ca. 250g</t>
+          <t>Accro Hacksteak pflanzlich</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/cicorino-rot-ca/p/3090859</t>
-        </is>
-      </c>
-      <c r="D531" t="n">
-        <v>14</v>
-      </c>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/accro-hacksteak-pflanzlich/p/7105606</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr"/>
       <c r="E531" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F531" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>ACCRO</t>
+        </is>
+      </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -37093,7 +37093,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -37103,50 +37103,56 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M531" t="inlineStr">
         <is>
-          <t>Cicorino rot ca. 250g 1.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N531" t="inlineStr"/>
+          <t>Accro Hacksteak pflanzlich 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N531" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>6986633</t>
+          <t>3090859</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Ingwer</t>
+          <t>Cicorino rot ca. 250g</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/ingwer/p/6986633</t>
-        </is>
-      </c>
-      <c r="D532" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/cicorino-rot-ca/p/3090859</t>
+        </is>
+      </c>
+      <c r="D532" t="n">
+        <v>14</v>
+      </c>
       <c r="E532" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
@@ -37156,7 +37162,7 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -37166,52 +37172,50 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M532" t="inlineStr">
         <is>
-          <t>Ingwer 2.95 Schweizer Franken</t>
+          <t>Cicorino rot ca. 250g 1.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N532" t="inlineStr"/>
       <c r="O532" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>4827243</t>
+          <t>6986633</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Löwenzahn grün</t>
+          <t>Ingwer</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/loewenzahn-gruen/p/4827243</t>
-        </is>
-      </c>
-      <c r="D533" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/ingwer/p/6986633</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr"/>
       <c r="E533" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F533" t="inlineStr"/>
       <c r="G533" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>3.30/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
@@ -37221,7 +37225,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -37231,146 +37235,343 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="M533" t="inlineStr">
         <is>
-          <t>Löwenzahn grün 3.30 Schweizer Franken</t>
+          <t>Ingwer 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N533" t="inlineStr"/>
       <c r="O533" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>3090940</t>
+          <t>4827243</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Rhabarber ca. 1kg</t>
+          <t>Löwenzahn grün</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-gartenfruechte/rhabarber-ca/p/3090940</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/loewenzahn-gruen/p/4827243</t>
         </is>
       </c>
       <c r="D534" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E534" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F534" t="inlineStr"/>
       <c r="G534" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>8.95/1kg</t>
+          <t>3.30/100g</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-gartenfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M534" t="inlineStr">
         <is>
-          <t>Rhabarber ca. 1kg 8.95 Schweizer Franken</t>
+          <t>Löwenzahn grün 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N534" t="inlineStr"/>
       <c r="O534" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>7020854</t>
+          <t>6306812</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Zitronen</t>
+          <t>Naturaplan Bio Kiwi 1 Stück</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/zitronen/p/7020854</t>
-        </is>
-      </c>
-      <c r="D535" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/naturaplan-bio-kiwi-1-stueck/p/6306812</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>11</v>
+      </c>
       <c r="E535" t="n">
-        <v>0</v>
-      </c>
-      <c r="F535" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>1.00/1kg</t>
+          <t>1.20/1ST</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
         </is>
       </c>
       <c r="M535" t="inlineStr">
         <is>
-          <t>Zitronen Superpreis Aktion 1.00 Schweizer Franken</t>
+          <t>Naturaplan Bio Kiwi 1 Stück 1.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N535" t="inlineStr"/>
       <c r="O535" t="inlineStr">
         <is>
-          <t>2023-02-21 06:51:29</t>
+          <t>2023-02-21 12:58:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>3921175</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Pflaumen Mix Schale</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/pflaumen-mix-schale/p/3921175</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr"/>
+      <c r="E536" t="n">
+        <v>0</v>
+      </c>
+      <c r="F536" t="inlineStr"/>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>1.98/1kg</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Kilogramm</t>
+        </is>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>1kg</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+        </is>
+      </c>
+      <c r="M536" t="inlineStr">
+        <is>
+          <t>Pflaumen Mix Schale 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N536" t="inlineStr"/>
+      <c r="O536" t="inlineStr">
+        <is>
+          <t>2023-02-21 12:58:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>3090940</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Rhabarber ca. 1kg</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-gartenfruechte/rhabarber-ca/p/3090940</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>3</v>
+      </c>
+      <c r="E537" t="n">
+        <v>5</v>
+      </c>
+      <c r="F537" t="inlineStr"/>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>8.95/1kg</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Kilogramm</t>
+        </is>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>1kg</t>
+        </is>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-gartenfruechte']</t>
+        </is>
+      </c>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>Rhabarber ca. 1kg 8.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N537" t="inlineStr"/>
+      <c r="O537" t="inlineStr">
+        <is>
+          <t>2023-02-21 12:58:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>7020854</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Zitronen</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/zitronen/p/7020854</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr"/>
+      <c r="E538" t="n">
+        <v>0</v>
+      </c>
+      <c r="F538" t="inlineStr"/>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>1.00/1kg</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Kilogramm</t>
+        </is>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>1kg</t>
+        </is>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+        </is>
+      </c>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>Zitronen Superpreis Aktion 1.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N538" t="inlineStr"/>
+      <c r="O538" t="inlineStr">
+        <is>
+          <t>2023-02-21 12:58:34</t>
         </is>
       </c>
     </row>
